--- a/1221LESSON12-1/三年6班.xlsx
+++ b/1221LESSON12-1/三年6班.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="三年6班" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="三年6班" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,14 +413,113 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>姓名</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>國文</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>英文</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>數學</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>地理</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>歷史</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>陳樂紫</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>83</v>
+      </c>
+      <c r="C2" t="n">
+        <v>79</v>
+      </c>
+      <c r="D2" t="n">
+        <v>99</v>
+      </c>
+      <c r="E2" t="n">
+        <v>53</v>
+      </c>
+      <c r="F2" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>郭舜昇</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>55</v>
+      </c>
+      <c r="C3" t="n">
+        <v>65</v>
+      </c>
+      <c r="D3" t="n">
+        <v>61</v>
+      </c>
+      <c r="E3" t="n">
+        <v>85</v>
+      </c>
+      <c r="F3" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>羅佩樺</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>60</v>
+      </c>
+      <c r="C4" t="n">
+        <v>55</v>
+      </c>
+      <c r="D4" t="n">
+        <v>79</v>
+      </c>
+      <c r="E4" t="n">
+        <v>80</v>
+      </c>
+      <c r="F4" t="n">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>